--- a/data/long_dif/P24_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_1-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>35,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 32,91</t>
+          <t>16,45; 31,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,35; 56,68</t>
+          <t>38,24; 60,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,04; 33,17</t>
+          <t>16,25; 33,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,45; 56,97</t>
+          <t>25,6; 52,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 44,67</t>
+          <t>38,26; 56,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,68; 40,95</t>
+          <t>28,74; 46,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,3; 41,71</t>
+          <t>25,46; 41,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,32; 48,3</t>
+          <t>24,01; 43,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,46; 34,28</t>
+          <t>29,22; 41,81</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36,39; 50,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 34,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28,2; 43,88</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>43,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,22%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,26; 61,42</t>
+          <t>43,87; 62,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 44,27</t>
+          <t>22,86; 43,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 56,95</t>
+          <t>35,98; 57,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 43,68</t>
+          <t>27,23; 54,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 44,88</t>
+          <t>25,73; 43,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 49,82</t>
+          <t>26,28; 44,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,46; 50,72</t>
+          <t>32,54; 50,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 41,96</t>
+          <t>23,47; 43,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,18; 50,8</t>
+          <t>37,73; 50,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26,41; 40,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 50,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 46,06</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 32,76</t>
+          <t>16,63; 32,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 29,68</t>
+          <t>11,37; 27,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 39,79</t>
+          <t>20,68; 40,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 26,59</t>
+          <t>11,49; 35,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,53; 38,89</t>
+          <t>12,21; 26,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 36,08</t>
+          <t>19,94; 37,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,88</t>
+          <t>18,68; 34,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 32,03</t>
+          <t>24,09; 44,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,22; 34,11</t>
+          <t>16,36; 26,81</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 29,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 34,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 35,52</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 35,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 45,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,28; 43,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 34,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 39,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,35; 30,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 32,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 39,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 35,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 51,25</t>
+          <t>16,57; 33,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,28; 55,4</t>
+          <t>18,74; 50,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,47; 53,53</t>
+          <t>19,27; 45,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,66; 57,96</t>
+          <t>13,18; 33,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,03; 50,66</t>
+          <t>19,53; 34,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,87; 58,48</t>
+          <t>24,16; 40,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,8; 51,24</t>
+          <t>18,77; 31,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,14; 50,26</t>
+          <t>14,05; 29,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,55; 53,38</t>
+          <t>20,52; 31,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 43,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 37,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 28,49</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>44,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43,19%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46,78%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,45; 48,54</t>
+          <t>29,15; 52,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,44; 33,32</t>
+          <t>32,24; 55,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 37,32</t>
+          <t>32,22; 52,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,68; 33,48</t>
+          <t>18,6; 44,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,85; 36,59</t>
+          <t>39,57; 57,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,92; 31,71</t>
+          <t>32,55; 49,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,57; 38,2</t>
+          <t>42,34; 56,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,73; 32,47</t>
+          <t>32,58; 51,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,33; 32,94</t>
+          <t>37,21; 51,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34,78; 50,06</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 53,27</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27,3; 44,13</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>29,68%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,63%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26,69%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41,42%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,58; 43,67</t>
+          <t>23,3; 50,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,13; 41,92</t>
+          <t>16,17; 34,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,77; 43,23</t>
+          <t>19,66; 37,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,42; 37,45</t>
+          <t>29,02; 66,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 43,53</t>
+          <t>17,34; 33,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 31,96</t>
+          <t>20,33; 35,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,81; 37,12</t>
+          <t>18,83; 31,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,32; 39,8</t>
+          <t>28,54; 46,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,81; 35,5</t>
+          <t>22,69; 38,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 31,88</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 32,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32,0; 56,39</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,64; 51,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,28; 55,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,03; 53,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,95; 55,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,38; 47,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,93; 48,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,29; 50,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,8; 49,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,48; 49,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 42,42</t>
+          <t>22,86; 40,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,98; 29,55</t>
+          <t>24,79; 44,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,71; 28,89</t>
+          <t>26,56; 42,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 28,38</t>
+          <t>17,81; 32,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,71</t>
+          <t>23,06; 35,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,95</t>
+          <t>30,41; 43,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,41; 32,95</t>
+          <t>22,17; 32,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,38; 26,72</t>
+          <t>21,92; 32,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 30,39</t>
+          <t>24,56; 35,26</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 40,37</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 35,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 30,06</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>44,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43,28%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43,47%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43,09%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,65; 26,24</t>
+          <t>35,18; 53,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>20,3; 33,18</t>
+          <t>35,75; 53,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,75; 31,65</t>
+          <t>36,11; 51,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,9; 35,46</t>
+          <t>36,54; 54,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,77; 33,04</t>
+          <t>42,17; 55,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,67; 35,52</t>
+          <t>35,5; 47,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,97; 28,99</t>
+          <t>37,04; 48,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,4; 31,19</t>
+          <t>35,06; 49,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,74; 31,98</t>
+          <t>40,54; 52,25</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>37,9; 48,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38,43; 48,41</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 48,76</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>46,55; 60,64</t>
+          <t>18,94; 33,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,32; 56,98</t>
+          <t>16,38; 30,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,34; 55,93</t>
+          <t>15,95; 30,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39,58; 52,11</t>
+          <t>23,09; 38,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,15; 50,08</t>
+          <t>17,62; 29,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,04; 47,34</t>
+          <t>17,13; 27,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,06; 54,3</t>
+          <t>24,73; 35,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41,32; 51,39</t>
+          <t>25,59; 38,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>41,15; 50,69</t>
+          <t>19,34; 29,06</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 27,29</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 31,43</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>27,05; 36,74</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20,12; 32,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,79; 32,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,53; 31,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,46; 31,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,12; 36,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,51; 33,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,16; 30,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,88; 25,9</t>
+          <t>15,57; 26,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>20,5; 36,85</t>
+          <t>19,07; 32,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>22,83; 36,3</t>
+          <t>18,79; 30,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,09; 29,04</t>
+          <t>17,81; 31,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>14,9; 29,64</t>
+          <t>21,7; 33,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,91; 34,39</t>
+          <t>21,66; 33,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,36; 25,6</t>
+          <t>25,04; 36,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>19,82; 31,11</t>
+          <t>19,1; 30,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,9; 32,86</t>
+          <t>20,45; 28,19</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 31,08</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 31,4</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 29,46</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>49,64%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>46,19%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>43,27%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>40,51; 58,42</t>
+          <t>46,91; 60,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>38,52; 55,42</t>
+          <t>41,71; 56,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,0; 58,63</t>
+          <t>42,36; 56,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,0</t>
+          <t>31,97; 49,87</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,18; 54,72</t>
+          <t>39,94; 52,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>38,91; 52,84</t>
+          <t>36,45; 49,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>43,73; 56,06</t>
+          <t>36,83; 47,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>40,68; 52,32</t>
+          <t>38,16; 51,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>43,42; 53,11</t>
+          <t>44,53; 54,31</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>41,29; 51,26</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>41,14; 49,85</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 48,3</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>23,6; 41,12</t>
+          <t>20,18; 32,22</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>19,07; 32,68</t>
+          <t>19,4; 32,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>14,58; 25,7</t>
+          <t>21,55; 33,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>21,82; 36,35</t>
+          <t>26,53; 47,76</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>24,05; 39,25</t>
+          <t>21,03; 31,85</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>21,46; 33,55</t>
+          <t>24,1; 35,78</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>24,5; 35,44</t>
+          <t>22,84; 32,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>23,68; 33,91</t>
+          <t>24,96; 36,69</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>19,22; 27,52</t>
+          <t>22,22; 30,62</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,35; 32,17</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>23,3; 31,2</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>27,78; 39,31</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>16,66; 39,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>11,36; 25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>17,09; 34,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,79; 29,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,35; 27,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>16,89; 29,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,43; 30,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,8; 24,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>18,71; 29,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>28,45%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>38,11; 58,68</t>
+          <t>14,31; 26,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>50,82; 71,62</t>
+          <t>20,14; 36,88</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>46,95; 65,1</t>
+          <t>23,5; 36,38</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>48,06; 64,48</t>
+          <t>18,76; 35,5</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>40,7; 60,84</t>
+          <t>15,81; 27,69</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>41,53; 59,38</t>
+          <t>15,42; 28,68</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>45,68; 59,38</t>
+          <t>21,88; 34,03</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>47,58; 62,79</t>
+          <t>20,92; 36,34</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>46,84; 58,67</t>
+          <t>16,44; 25,46</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 30,94</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 32,92</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>21,72; 33,0</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>46,32%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>46,93%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>18,74; 37,3</t>
+          <t>39,89; 56,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>14,58; 31,1</t>
+          <t>36,97; 54,01</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>13,64; 26,42</t>
+          <t>44,36; 58,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,04; 30,26</t>
+          <t>38,92; 57,75</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,34; 38,07</t>
+          <t>42,28; 57,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>20,0; 34,25</t>
+          <t>38,5; 54,83</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>19,6; 30,67</t>
+          <t>38,35; 52,67</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>19,92; 32,36</t>
+          <t>36,81; 55,91</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>18,83; 28,44</t>
+          <t>43,59; 54,93</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>40,7; 52,27</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>43,43; 52,94</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>40,31; 53,53</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>21,16; 28,54</t>
+          <t>24,22; 40,67</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>26,12; 33,67</t>
+          <t>20,21; 34,18</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>24,4; 31,22</t>
+          <t>14,42; 24,97</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>25,65; 31,48</t>
+          <t>18,21; 32,84</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,35</t>
+          <t>21,9; 36,09</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>24,72; 29,84</t>
+          <t>24,06; 38,82</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,76</t>
+          <t>21,7; 33,61</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>26,56; 31,79</t>
+          <t>18,85; 34,56</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>25,37; 29,69</t>
+          <t>24,64; 35,92</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>23,77; 34,06</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 27,58</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 31,11</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>43,94; 51,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>45,05; 52,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>44,66; 51,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>39,93; 46,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>42,27; 48,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>45,23; 50,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>42,52; 48,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>44,55; 49,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>24,48; 32,36</t>
+          <t>18,34; 39,18</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>20,55; 26,72</t>
+          <t>12,46; 26,3</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,19</t>
+          <t>17,22; 33,55</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,68</t>
+          <t>15,18; 36,03</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>24,93; 30,76</t>
+          <t>14,62; 26,93</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>24,97; 30,22</t>
+          <t>15,7; 28,99</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>23,62; 28,49</t>
+          <t>17,47; 30,34</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,27</t>
+          <t>15,13; 32,44</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>23,68; 27,56</t>
+          <t>18,02; 30,23</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>15,6; 25,56</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 28,93</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 30,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>49,15%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>58,55%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>56,92%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>51,88%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>54,88%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>49,79%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>48,58%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>52,37%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>53,47%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>52,23%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>38,4; 58,09</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>48,82; 68,52</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>47,7; 65,36</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>39,15; 63,68</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>45,87; 63,27</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>41,1; 59,05</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 56,35</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>28,22; 48,08</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>45,77; 58,28</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>46,99; 60,7</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>46,3; 57,56</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>36,61; 51,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>28,28%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 32,72</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 31,38</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 26,76</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 36,49</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 34,31</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 36,8</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>22,13; 35,29</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>28,48; 49,53</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 30,84</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 32,1</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>19,5; 29,83</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 40,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>29,85%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 28,06</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 35,36</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 31,76</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 30,28</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,59</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 32,13</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 30,09</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 29,01</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 28,47</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>27,63; 32,75</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>25,38; 29,69</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 28,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>46,04%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>48,16%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>43,26%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>47,94%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>44,62%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 51,93</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>41,93; 50,3</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>44,44; 51,58</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 47,74</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>44,94; 51,16</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>40,14; 46,6</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>42,17; 47,94</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 44,73</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>45,45; 50,41</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>42,08; 47,18</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>44,25; 48,9</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>39,05; 44,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>33,26%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>24,04; 31,33</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 26,63</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 27,72</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 37,42</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 27,46</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 30,24</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 30,06</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>29,86; 37,06</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 28,33</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 27,67</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 28,02</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 35,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
